--- a/refs/calcs.xlsx
+++ b/refs/calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Tennp\git\TM1829\refs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA89C672-5F66-4C87-8A50-1EF0DEE6945A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66123833-B8A8-4022-9C39-7D7F54234789}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11120" windowHeight="2850" xr2:uid="{1EE567A0-B925-432D-9883-DEEF17E705EF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>sysclk</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>RGB</t>
-  </si>
-  <si>
-    <t>TODO</t>
   </si>
 </sst>
 </file>
@@ -578,7 +575,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,13 +606,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="5">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I1" s="5">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J1" s="6">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -685,27 +682,27 @@
       </c>
       <c r="K4" s="11" t="str">
         <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(RIGHT(_xlfn.BITXOR(H1,255),8),16),2)+_xlfn.BITAND(_xlfn.BITXOR(H1,255),8)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H1,255),4),2)+36,8)</f>
-        <v>01101101</v>
+        <v>00100100</v>
       </c>
       <c r="L4" s="11" t="str">
         <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H1,255),2),4)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H1,255),1),2)+146,8)</f>
-        <v>10010010</v>
+        <v>10110110</v>
       </c>
       <c r="M4" s="11" t="str">
         <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),16),3)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),8),1)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),4),1)+73,8)</f>
-        <v>11011011</v>
+        <v>01011001</v>
       </c>
       <c r="N4" s="11" t="str">
         <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),2),5)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),1),3)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR($J$1,255),16),4)+36,8)</f>
-        <v>00101101</v>
+        <v>01100101</v>
       </c>
       <c r="O4" s="11" t="str">
         <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($J$1,255),8),2)+_xlfn.BITAND(_xlfn.BITXOR($J$1,255),4)+146,8)</f>
-        <v>10110110</v>
+        <v>10010010</v>
       </c>
       <c r="P4" s="12" t="str">
         <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($J$1,255),2),6)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($J$1,255),1),4)+75,8)</f>
-        <v>11001011</v>
+        <v>01001011</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -733,27 +730,27 @@
       </c>
       <c r="K5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>6D</v>
+        <v>24</v>
       </c>
       <c r="L5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>B6</v>
       </c>
       <c r="M5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>DB</v>
+        <v>59</v>
       </c>
       <c r="N5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>2D</v>
+        <v>65</v>
       </c>
       <c r="O5" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>B6</v>
+        <v>92</v>
       </c>
       <c r="P5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CB</v>
+        <v>4B</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -774,27 +771,27 @@
       </c>
       <c r="K6" s="16">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" si="1"/>
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="M6" s="16">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="N6" s="16">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="O6" s="16">
         <f t="shared" si="1"/>
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="P6" s="17">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -807,39 +804,33 @@
       </c>
       <c r="I8" s="18" t="str">
         <f>IF(LEFT(K4,3)="001",1,0) &amp; IF(MID(K4,4,3)="001",1,0) &amp; IF(MID(K4,7,2)="00",1,0) &amp; IF(MID(L4,2,3)="001",1,0) &amp; IF(MID(L4,5,3)="001",1,0) &amp; IF(MID(M4,1,2)="01",1,0) &amp; IF(MID(M4,3,3)="001",1,0)  &amp; IF(MID(M4,6,3)="001",1,0)</f>
-        <v>00011000</v>
+        <v>11100101</v>
       </c>
       <c r="J8" s="4" t="str">
         <f>IF(LEFT(N4,3)="001",1,0) &amp; IF(MID(N4,4,3)="001",1,0) &amp; IF(MID(N4,7,2)="00",1,0) &amp; IF(MID(O4,2,3)="001",1,0) &amp; IF(MID(O4,5,3)="001",1,0) &amp; IF(MID(P4,1,2)="01",1,0) &amp; IF(MID(P4,3,3)="001",1,0)  &amp; IF(MID(P4,6,3)="001",1,0)</f>
-        <v>10000010</v>
+        <v>01011110</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E11" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="E11" s="19"/>
       <c r="G11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="5">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="I11" s="5">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="J11" s="6">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E12" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E13" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="E13" s="19"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8">
         <v>0</v>
@@ -870,71 +861,67 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E14" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="E14" s="19"/>
       <c r="G14" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="11" t="str">
-        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(RIGHT(_xlfn.BITXOR(H11,255),8),16),2)+_xlfn.BITAND(_xlfn.BITXOR(H11,255),8)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),4),2)+36,8)</f>
-        <v>01101101</v>
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),128),1)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),64),3)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),32),5)+36,8)</f>
+        <v>00100100</v>
       </c>
       <c r="I14" s="11" t="str">
-        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),2),4)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),1),2)+146,8)</f>
-        <v>10110010</v>
+        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),16),1)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),8),1)+146,8)</f>
+        <v>10010010</v>
       </c>
       <c r="J14" s="11" t="str">
-        <f>HEX2BIN("49",8)</f>
+        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),4),5)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),2),3)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(H11,255),1),1)+73,8)</f>
+        <v>01001011</v>
+      </c>
+      <c r="K14" s="11" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(I11,255),128),1)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(I11,255),64),3)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(I11,255),32),5)+36,8)</f>
+        <v>00100100</v>
+      </c>
+      <c r="L14" s="11" t="str">
+        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(I11,255),16),1)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(I11,255),8),1)+146,8)</f>
+        <v>10010010</v>
+      </c>
+      <c r="M14" s="11" t="str">
+        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(I11,255),4),5)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(I11,255),2),3)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(I11,255),1),1)+73,8)</f>
         <v>01001001</v>
       </c>
-      <c r="K14" s="11" t="str">
-        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(RIGHT(_xlfn.BITXOR($H$1,255),8),16),2)+_xlfn.BITAND(_xlfn.BITXOR($H$1,255),8)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR($H$1,255),4),2)+36,8)</f>
-        <v>01101101</v>
-      </c>
-      <c r="L14" s="11" t="str">
-        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($H$1,255),2),4)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($H$1,255),1),2)+146,8)</f>
+      <c r="N14" s="11" t="str">
+        <f>DEC2BIN(_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(J11,255),128),1)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(J11,255),64),3)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(J11,255),32),5)+36,8)</f>
+        <v>00100100</v>
+      </c>
+      <c r="O14" s="11" t="str">
+        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(J11,255),16),1)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR(J11,255),8),1)+146,8)</f>
         <v>10010010</v>
       </c>
-      <c r="M14" s="11" t="str">
-        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),16),3)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),8),1)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),4),1)+73,8)</f>
-        <v>11011011</v>
-      </c>
-      <c r="N14" s="11" t="str">
-        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),2),5)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($I$1,255),1),3)+_xlfn.BITRSHIFT(_xlfn.BITAND(_xlfn.BITXOR($J$1,255),16),4)+36,8)</f>
-        <v>00101101</v>
-      </c>
-      <c r="O14" s="11" t="str">
-        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($J$1,255),8),2)+_xlfn.BITAND(_xlfn.BITXOR($J$1,255),4)+146,8)</f>
-        <v>10110110</v>
-      </c>
       <c r="P14" s="12" t="str">
-        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($J$1,255),2),6)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR($J$1,255),1),4)+75,8)</f>
-        <v>11001011</v>
+        <f>DEC2BIN(_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(J11,255),4),5)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(J11,255),2),3)+_xlfn.BITLSHIFT(_xlfn.BITAND(_xlfn.BITXOR(J11,255),1),1)+73,8)</f>
+        <v>01001001</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E15" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="E15" s="19"/>
       <c r="G15" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="13" t="str">
         <f>BIN2HEX(H14,2)</f>
-        <v>6D</v>
+        <v>24</v>
       </c>
       <c r="I15" s="13" t="str">
         <f t="shared" ref="I15" si="2">BIN2HEX(I14,2)</f>
-        <v>B2</v>
+        <v>92</v>
       </c>
       <c r="J15" s="13" t="str">
         <f t="shared" ref="J15" si="3">BIN2HEX(J14,2)</f>
-        <v>49</v>
+        <v>4B</v>
       </c>
       <c r="K15" s="13" t="str">
         <f t="shared" ref="K15" si="4">BIN2HEX(K14,2)</f>
-        <v>6D</v>
+        <v>24</v>
       </c>
       <c r="L15" s="13" t="str">
         <f t="shared" ref="L15" si="5">BIN2HEX(L14,2)</f>
@@ -942,43 +929,41 @@
       </c>
       <c r="M15" s="13" t="str">
         <f t="shared" ref="M15" si="6">BIN2HEX(M14,2)</f>
-        <v>DB</v>
+        <v>49</v>
       </c>
       <c r="N15" s="13" t="str">
         <f t="shared" ref="N15" si="7">BIN2HEX(N14,2)</f>
-        <v>2D</v>
+        <v>24</v>
       </c>
       <c r="O15" s="13" t="str">
         <f t="shared" ref="O15" si="8">BIN2HEX(O14,2)</f>
-        <v>B6</v>
+        <v>92</v>
       </c>
       <c r="P15" s="14" t="str">
         <f t="shared" ref="P15" si="9">BIN2HEX(P14,2)</f>
-        <v>CB</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="E16" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="E16" s="19"/>
       <c r="G16" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="16">
         <f>HEX2DEC(H15)</f>
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ref="I16" si="10">HEX2DEC(I15)</f>
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" ref="J16" si="11">HEX2DEC(J15)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" ref="K16" si="12">HEX2DEC(K15)</f>
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" ref="L16" si="13">HEX2DEC(L15)</f>
@@ -986,44 +971,40 @@
       </c>
       <c r="M16" s="16">
         <f t="shared" ref="M16" si="14">HEX2DEC(M15)</f>
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="N16" s="16">
         <f t="shared" ref="N16" si="15">HEX2DEC(N15)</f>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="O16" s="16">
         <f t="shared" ref="O16" si="16">HEX2DEC(O15)</f>
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="P16" s="17">
         <f t="shared" ref="P16" si="17">HEX2DEC(P15)</f>
-        <v>203</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E17" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E18" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="E18" s="19"/>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="18" t="str">
         <f>IF(LEFT(H14,3)="001",1,0) &amp; IF(MID(H14,4,3)="001",1,0) &amp; IF(MID(H14,7,2)="00",1,0) &amp; IF(MID(I14,2,3)="001",1,0) &amp; IF(MID(I14,5,3)="001",1,0) &amp; IF(MID(J14,1,2)="01",1,0) &amp; IF(MID(J14,3,3)="001",1,0)  &amp; IF(MID(J14,6,3)="001",1,0)</f>
-        <v>00001111</v>
+        <v>11111110</v>
       </c>
       <c r="I18" s="18" t="str">
         <f>IF(LEFT(K14,3)="001",1,0) &amp; IF(MID(K14,4,3)="001",1,0) &amp; IF(MID(K14,7,2)="00",1,0) &amp; IF(MID(L14,2,3)="001",1,0) &amp; IF(MID(L14,5,3)="001",1,0) &amp; IF(MID(M14,1,2)="01",1,0) &amp; IF(MID(M14,3,3)="001",1,0)  &amp; IF(MID(M14,6,3)="001",1,0)</f>
-        <v>00011000</v>
+        <v>11111111</v>
       </c>
       <c r="J18" s="4" t="str">
         <f>IF(LEFT(N14,3)="001",1,0) &amp; IF(MID(N14,4,3)="001",1,0) &amp; IF(MID(N14,7,2)="00",1,0) &amp; IF(MID(O14,2,3)="001",1,0) &amp; IF(MID(O14,5,3)="001",1,0) &amp; IF(MID(P14,1,2)="01",1,0) &amp; IF(MID(P14,3,3)="001",1,0)  &amp; IF(MID(P14,6,3)="001",1,0)</f>
-        <v>10000010</v>
+        <v>11111111</v>
       </c>
     </row>
   </sheetData>
